--- a/DATA_moral2.xlsx
+++ b/DATA_moral2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\docMgrJozefKiseľákPh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48B37C0-E066-4476-974B-120641F12544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941A5612-17DF-4E2D-8B1F-E8F77C051D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,46 +38,46 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t>rozumová výchova2</t>
+    <t>Rozumová výchova</t>
   </si>
   <si>
-    <t>morálna výchova2</t>
+    <t>Morálna výchova</t>
   </si>
   <si>
-    <t>pracovná výchova2</t>
+    <t>Pracovná výchova</t>
   </si>
   <si>
-    <t>estetická výchova2</t>
+    <t>Estetická výchova</t>
   </si>
   <si>
-    <t>telesná výchova2</t>
+    <t>Telesná výchova</t>
   </si>
   <si>
-    <t>náboženská výchova2</t>
+    <t>Náboženská výchova</t>
   </si>
   <si>
-    <t>mediálna výchova2</t>
+    <t>Mediálna výchova</t>
   </si>
   <si>
-    <t>multikultúrna výchova2</t>
+    <t>Multikultúrna výchova</t>
   </si>
   <si>
-    <t>regionálna výchova2</t>
+    <t>Regionálna výchova</t>
   </si>
   <si>
-    <t>sexuálna výchova2</t>
+    <t>Sexuálna výchova</t>
   </si>
   <si>
-    <t>výchova k manželstvu a rodičovstvu2</t>
+    <t>Výchova k manželstvu a rodičovstvu</t>
   </si>
   <si>
-    <t>emočná/citová výchova2</t>
+    <t>Emočná/citová výchova</t>
   </si>
   <si>
-    <t>globálna výchova2</t>
+    <t>Globálna výchova</t>
   </si>
   <si>
-    <t>environmentálna výchova2</t>
+    <t>Environmentálna výchova</t>
   </si>
 </sst>
 </file>
@@ -99,7 +99,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,6 +109,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -126,10 +132,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
@@ -278,20 +285,20 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:N1048576" totalsRowShown="0">
   <tableColumns count="14">
-    <tableColumn id="81" xr3:uid="{00000000-0010-0000-0000-000051000000}" name="rozumová výchova2" dataDxfId="13"/>
-    <tableColumn id="84" xr3:uid="{00000000-0010-0000-0000-000054000000}" name="morálna výchova2" dataDxfId="12"/>
-    <tableColumn id="87" xr3:uid="{00000000-0010-0000-0000-000057000000}" name="pracovná výchova2" dataDxfId="11"/>
-    <tableColumn id="90" xr3:uid="{00000000-0010-0000-0000-00005A000000}" name="estetická výchova2" dataDxfId="10"/>
-    <tableColumn id="93" xr3:uid="{00000000-0010-0000-0000-00005D000000}" name="telesná výchova2" dataDxfId="9"/>
-    <tableColumn id="96" xr3:uid="{00000000-0010-0000-0000-000060000000}" name="náboženská výchova2" dataDxfId="8"/>
-    <tableColumn id="99" xr3:uid="{00000000-0010-0000-0000-000063000000}" name="mediálna výchova2" dataDxfId="7"/>
-    <tableColumn id="102" xr3:uid="{00000000-0010-0000-0000-000066000000}" name="multikultúrna výchova2" dataDxfId="6"/>
-    <tableColumn id="105" xr3:uid="{00000000-0010-0000-0000-000069000000}" name="regionálna výchova2" dataDxfId="5"/>
-    <tableColumn id="108" xr3:uid="{00000000-0010-0000-0000-00006C000000}" name="sexuálna výchova2" dataDxfId="4"/>
-    <tableColumn id="111" xr3:uid="{00000000-0010-0000-0000-00006F000000}" name="výchova k manželstvu a rodičovstvu2" dataDxfId="3"/>
-    <tableColumn id="114" xr3:uid="{00000000-0010-0000-0000-000072000000}" name="emočná/citová výchova2" dataDxfId="2"/>
-    <tableColumn id="117" xr3:uid="{00000000-0010-0000-0000-000075000000}" name="globálna výchova2" dataDxfId="1"/>
-    <tableColumn id="120" xr3:uid="{00000000-0010-0000-0000-000078000000}" name="environmentálna výchova2" dataDxfId="0"/>
+    <tableColumn id="81" xr3:uid="{00000000-0010-0000-0000-000051000000}" name="Rozumová výchova" dataDxfId="13"/>
+    <tableColumn id="84" xr3:uid="{00000000-0010-0000-0000-000054000000}" name="Morálna výchova" dataDxfId="12"/>
+    <tableColumn id="87" xr3:uid="{00000000-0010-0000-0000-000057000000}" name="Pracovná výchova" dataDxfId="11"/>
+    <tableColumn id="90" xr3:uid="{00000000-0010-0000-0000-00005A000000}" name="Estetická výchova" dataDxfId="10"/>
+    <tableColumn id="93" xr3:uid="{00000000-0010-0000-0000-00005D000000}" name="Telesná výchova" dataDxfId="9"/>
+    <tableColumn id="96" xr3:uid="{00000000-0010-0000-0000-000060000000}" name="Náboženská výchova" dataDxfId="8"/>
+    <tableColumn id="99" xr3:uid="{00000000-0010-0000-0000-000063000000}" name="Mediálna výchova" dataDxfId="7"/>
+    <tableColumn id="102" xr3:uid="{00000000-0010-0000-0000-000066000000}" name="Multikultúrna výchova" dataDxfId="6"/>
+    <tableColumn id="105" xr3:uid="{00000000-0010-0000-0000-000069000000}" name="Regionálna výchova" dataDxfId="5"/>
+    <tableColumn id="108" xr3:uid="{00000000-0010-0000-0000-00006C000000}" name="Sexuálna výchova" dataDxfId="4"/>
+    <tableColumn id="111" xr3:uid="{00000000-0010-0000-0000-00006F000000}" name="Výchova k manželstvu a rodičovstvu" dataDxfId="3"/>
+    <tableColumn id="114" xr3:uid="{00000000-0010-0000-0000-000072000000}" name="Emočná/citová výchova" dataDxfId="2"/>
+    <tableColumn id="117" xr3:uid="{00000000-0010-0000-0000-000075000000}" name="Globálna výchova" dataDxfId="1"/>
+    <tableColumn id="120" xr3:uid="{00000000-0010-0000-0000-000078000000}" name="Environmentálna výchova" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -597,7 +604,7 @@
   <dimension ref="A1:N372"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:X1048576"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -606,46 +613,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
